--- a/4. Data/R models/Error By Country/N100/N100_DM_training.xlsx
+++ b/4. Data/R models/Error By Country/N100/N100_DM_training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis Francisco Bettencourt\Tese Nov\4. Data\R models\Error By Country\N100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6200F78B-EAB0-41B9-A535-BC26BBE643D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27196790-1E1B-47EC-84AE-5315E0FAF45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="7320" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -217,10 +217,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,10 +230,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Cor6" xfId="1" builtinId="50"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,81 +586,81 @@
   <sheetData>
     <row r="1" spans="5:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="4">
+      <c r="G4" s="9">
         <v>4.8434837392402952E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="9">
         <v>1.6084229437944041E-18</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="9">
         <v>0.79958510540721262</v>
       </c>
     </row>
     <row r="5" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4">
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
         <v>1.530731699797455E-15</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="9">
         <v>0.44729674572383699</v>
       </c>
     </row>
     <row r="6" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9">
         <v>1.038502617234371E-12</v>
       </c>
     </row>
     <row r="7" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="K11" s="11"/>
+      <c r="K11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
